--- a/data_referensi/Template_Data_Referensi.xlsx
+++ b/data_referensi/Template_Data_Referensi.xlsx
@@ -476,22 +476,22 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Kementrian</t>
+          <t>Kementerian Keuangan</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>111123</t>
+          <t>421119</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Test aja</t>
+          <t>test</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>testtttttttttttttttttttttttttttttt ajaaaaaaaaaaaaaaa</t>
+          <t>testtttttttttt ajaaaaaaaaaaa</t>
         </is>
       </c>
     </row>
